--- a/figures/list_needed.xlsx
+++ b/figures/list_needed.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="0" windowWidth="34060" windowHeight="23740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="57">
   <si>
     <t>Machine</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>N/2, N/4, N/(n/2), etc</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>added isend/irecv as well</t>
+  </si>
+  <si>
+    <t>Compare single vs double precision weights (accuracy in computation and evaluation)</t>
+  </si>
+  <si>
+    <t>mean and stddev of accuracy (based on sum to 0)</t>
   </si>
 </sst>
 </file>
@@ -309,7 +321,7 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -447,156 +459,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -927,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -945,7 +807,7 @@
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -983,7 +845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90" customHeight="1">
+    <row r="2" spans="1:14" ht="90" customHeight="1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1006,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="76" customHeight="1">
+    <row r="3" spans="1:14" ht="76" customHeight="1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1028,11 +890,17 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
       <c r="L3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="85" customHeight="1">
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="85" customHeight="1">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +926,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58" customHeight="1">
+    <row r="5" spans="1:14" ht="58" customHeight="1">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1080,11 +948,14 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
       <c r="L5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" customHeight="1">
+    <row r="6" spans="1:14" ht="45" customHeight="1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" customHeight="1">
+    <row r="7" spans="1:14" ht="45" customHeight="1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="53" customHeight="1">
+    <row r="8" spans="1:14" ht="53" customHeight="1">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1162,7 +1033,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="67" customHeight="1">
+    <row r="9" spans="1:14" ht="67" customHeight="1">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="67" customHeight="1">
+    <row r="10" spans="1:14" ht="67" customHeight="1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1214,7 +1085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="67" customHeight="1">
+    <row r="11" spans="1:14" ht="67" customHeight="1">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1240,7 +1111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="67" customHeight="1">
+    <row r="12" spans="1:14" ht="67" customHeight="1">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1266,7 +1137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="68" customHeight="1">
+    <row r="13" spans="1:14" ht="68" customHeight="1">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1292,7 +1163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38" customHeight="1">
+    <row r="14" spans="1:14" ht="38" customHeight="1">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1318,7 +1189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="44" customHeight="1">
+    <row r="15" spans="1:14" ht="44" customHeight="1">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1344,7 +1215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" customHeight="1">
+    <row r="16" spans="1:14" ht="45" customHeight="1">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1399,60 +1270,68 @@
         <v>52</v>
       </c>
     </row>
+    <row r="23" spans="1:16" ht="30">
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K1:K2 K13:K15 K5:K8 L1 K11 K17:K1048576">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="13">
       <formula>LEN(TRIM(K1))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="16" priority="15">
+    <cfRule type="containsBlanks" dxfId="12" priority="15">
       <formula>LEN(TRIM(K1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
       <formula>LEN(TRIM(K12))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="14" priority="12">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="9">
       <formula>LEN(TRIM(K4))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="10">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(K4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="7">
       <formula>LEN(TRIM(K9))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="10" priority="8">
+    <cfRule type="containsBlanks" dxfId="6" priority="8">
       <formula>LEN(TRIM(K9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(K10))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(K3))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(K3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(K16))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(K16))=0</formula>
     </cfRule>
   </conditionalFormatting>
